--- a/Users Loads30.xlsx
+++ b/Users Loads30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.607675349093667</v>
+        <v>0.286460895247107</v>
       </c>
       <c r="C2" t="n">
-        <v>5.27381935821851</v>
+        <v>4.746020515650347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6512759506339568</v>
+        <v>0.4727348128229428</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.387842889928865</v>
+        <v>2.230367558550862</v>
       </c>
       <c r="C3" t="n">
-        <v>3.496490069514525</v>
+        <v>5.251561371221742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6765267915699157</v>
+        <v>0.6321879277731501</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.025532991868135</v>
+        <v>3.669156313307527</v>
       </c>
       <c r="C4" t="n">
-        <v>3.981727022979351</v>
+        <v>2.317081035712063</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4782431122517867</v>
+        <v>0.3538882889016368</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.003719349576185</v>
+        <v>11.47921619540952</v>
       </c>
       <c r="C5" t="n">
-        <v>3.061282920882249</v>
+        <v>2.885205056779755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1670588235547683</v>
+        <v>0.5277895978505266</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.954899871364117</v>
+        <v>12.74819042300119</v>
       </c>
       <c r="C6" t="n">
-        <v>5.525180236054742</v>
+        <v>4.371768788899258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5835136227853313</v>
+        <v>0.4089252986788101</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.243802097864606</v>
+        <v>17.25061859970674</v>
       </c>
       <c r="C7" t="n">
-        <v>3.622386724535797</v>
+        <v>3.558084572552673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2600278377934347</v>
+        <v>0.3185818086229051</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.12985600793652</v>
+        <v>23.07181722893516</v>
       </c>
       <c r="C8" t="n">
-        <v>6.089105126964528</v>
+        <v>9.788414262518199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7129839969026883</v>
+        <v>0.3925429245125801</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.55547127102486</v>
+        <v>26.1900267586474</v>
       </c>
       <c r="C9" t="n">
-        <v>7.878965988134863</v>
+        <v>3.053784551871573</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7331205431411032</v>
+        <v>0.3471317804191364</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.00295611640951</v>
+        <v>27.45414242862709</v>
       </c>
       <c r="C10" t="n">
-        <v>2.135620904293907</v>
+        <v>2.701725091488263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3876661132796464</v>
+        <v>0.5273447829689452</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16.67644134384903</v>
+        <v>37.14227233417827</v>
       </c>
       <c r="C11" t="n">
-        <v>4.430916060776693</v>
+        <v>5.221176653528063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4064646943655991</v>
+        <v>0.3875005073245222</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.75400545649339</v>
+        <v>39.62352365760053</v>
       </c>
       <c r="C12" t="n">
-        <v>5.641960430860199</v>
+        <v>4.265887939508932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3641065409632357</v>
+        <v>0.7061433102782996</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.589491039822</v>
+        <v>41.23430947029764</v>
       </c>
       <c r="C13" t="n">
-        <v>8.182612236963092</v>
+        <v>5.341503290989864</v>
       </c>
       <c r="D13" t="n">
-        <v>0.428250147244172</v>
+        <v>0.4854642779307434</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19.48132943162519</v>
+        <v>45.87621604396202</v>
       </c>
       <c r="C14" t="n">
-        <v>3.474005754835462</v>
+        <v>8.01524467753754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7070296469974476</v>
+        <v>0.5020888736243873</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19.98620340713438</v>
+        <v>49.98148866768199</v>
       </c>
       <c r="C15" t="n">
-        <v>3.781962368042087</v>
+        <v>4.809819430656425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1912344697278168</v>
+        <v>0.7216951422634694</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.21892668853048</v>
+        <v>54.32811246358557</v>
       </c>
       <c r="C16" t="n">
-        <v>3.836680974759972</v>
+        <v>4.123494739955623</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2358676298066064</v>
+        <v>0.6062287808160889</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.11466237739673</v>
+        <v>54.43732197290041</v>
       </c>
       <c r="C17" t="n">
-        <v>4.312359121138228</v>
+        <v>3.954429392858043</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4615166744714084</v>
+        <v>0.3526056328385668</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.14770858837099</v>
+        <v>55.31132627054127</v>
       </c>
       <c r="C18" t="n">
-        <v>4.464728473241975</v>
+        <v>3.017584944421627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8569465451268347</v>
+        <v>0.5908042842897763</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.24583813913201</v>
+        <v>58.24465218985221</v>
       </c>
       <c r="C19" t="n">
-        <v>2.559173550461778</v>
+        <v>4.249186089457251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4855854785662411</v>
+        <v>1.025397099378545</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.42158147785886</v>
+        <v>59.72864890111819</v>
       </c>
       <c r="C20" t="n">
-        <v>4.605233520700143</v>
+        <v>5.942922426859478</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4239119214277772</v>
+        <v>0.6747188657400782</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>31.36342221183132</v>
+        <v>60.40294966280816</v>
       </c>
       <c r="C21" t="n">
-        <v>2.858304119576564</v>
+        <v>7.735845077956481</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5137937783130859</v>
+        <v>0.5731004723539019</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>31.401617367242</v>
+        <v>63.23064429763924</v>
       </c>
       <c r="C22" t="n">
-        <v>1.768808971818014</v>
+        <v>2.595459944364642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2424260746180644</v>
+        <v>0.4895934386963501</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>37.59844162312463</v>
+        <v>66.56670191755907</v>
       </c>
       <c r="C23" t="n">
-        <v>4.446488049897518</v>
+        <v>2.401434162448851</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4826591271403894</v>
+        <v>0.1411851175074385</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38.06757514509744</v>
+        <v>67.6346150651043</v>
       </c>
       <c r="C24" t="n">
-        <v>4.278998561116132</v>
+        <v>4.647647926163198</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3638446271018894</v>
+        <v>0.5882153209450578</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.23855329355082</v>
+        <v>67.90079812831119</v>
       </c>
       <c r="C25" t="n">
-        <v>8.021230615381095</v>
+        <v>7.024806158460647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6264396469807174</v>
+        <v>0.4389420328398863</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.69319825101102</v>
+        <v>69.75598582270281</v>
       </c>
       <c r="C26" t="n">
-        <v>1.496564121921091</v>
+        <v>2.671327016944971</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3181373854346786</v>
+        <v>0.3214859282130232</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>47.18594585583053</v>
+        <v>70.60633320178452</v>
       </c>
       <c r="C27" t="n">
-        <v>2.664108456104602</v>
+        <v>3.509065627078795</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3770304061136482</v>
+        <v>0.5415820440795533</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>47.80911602857728</v>
+        <v>71.36540379820553</v>
       </c>
       <c r="C28" t="n">
-        <v>4.008616988988736</v>
+        <v>4.743638802328591</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4450659400850425</v>
+        <v>0.6492795168174066</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48.83319455767405</v>
+        <v>78.0184459077343</v>
       </c>
       <c r="C29" t="n">
-        <v>6.260483383998978</v>
+        <v>6.466889421737979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4791767284598187</v>
+        <v>0.7742482498579564</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>54.50458424329392</v>
+        <v>79.4073401576799</v>
       </c>
       <c r="C30" t="n">
-        <v>3.138903322666764</v>
+        <v>5.641604885579636</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5194821019848832</v>
+        <v>0.8784276127698434</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>57.13694468060496</v>
+        <v>80.89708106238582</v>
       </c>
       <c r="C31" t="n">
-        <v>9.18058699885146</v>
+        <v>5.971110832105028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.458350175366026</v>
+        <v>0.5021917647974306</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>59.47486564839333</v>
+        <v>84.62274384429537</v>
       </c>
       <c r="C32" t="n">
-        <v>2.615880922030005</v>
+        <v>1.295271304674464</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2841241253495081</v>
+        <v>0.3235061509871918</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.6105812288818</v>
+        <v>88.07458010611217</v>
       </c>
       <c r="C33" t="n">
-        <v>1.573994573362525</v>
+        <v>4.221226961029618</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2623110303818462</v>
+        <v>0.3524241691173601</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>63.66552423305296</v>
+        <v>88.7776406750757</v>
       </c>
       <c r="C34" t="n">
-        <v>4.255303818072386</v>
+        <v>5.22782843505373</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4101873664137039</v>
+        <v>0.7651465669153261</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.24846219672872</v>
+        <v>96.18373685705228</v>
       </c>
       <c r="C35" t="n">
-        <v>5.761297458709747</v>
+        <v>6.783266618441398</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5660926552019209</v>
+        <v>0.7876576802273472</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64.43360800808118</v>
+        <v>96.36982910532663</v>
       </c>
       <c r="C36" t="n">
-        <v>5.745798132746872</v>
+        <v>5.45069457313027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7739792557657601</v>
+        <v>0.261164713329371</v>
       </c>
     </row>
     <row r="37">
@@ -945,391 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>64.81948580898097</v>
+        <v>99.28522011967388</v>
       </c>
       <c r="C37" t="n">
-        <v>10.37473210344416</v>
+        <v>2.391026384526914</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5084523821326347</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>66.25288580229171</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.621003364997868</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5538021469144638</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>67.2409666175143</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.700746399364321</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.4597742314794649</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>67.35856712448923</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5.144090520704037</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.590242200365972</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>68.65602065983042</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.502219919656007</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.407856236302475</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>71.65746107573247</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.322543112098079</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5687675195199781</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>72.44808996841502</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.157236870745611</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.7664403323518413</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>73.11534551872965</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.200323852113353</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2346337058141981</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>73.5135713601268</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.998366767403716</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.4172309215347755</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>74.48145711500246</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.455790604204783</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2784801510875012</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>75.55870375991175</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.610629813814341</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5943631863808949</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>77.60831384121578</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.578421154004204</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.3763097433779176</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>78.87653528920495</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.588108848819097</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.727315763299428</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>80.38669045656918</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3.99239906747715</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.3895972800402288</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>80.45486032711811</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.409603607417916</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2340291311514724</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>81.56891751337844</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.82050891313108</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2932822540731964</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>85.40095438378525</v>
-      </c>
-      <c r="C53" t="n">
-        <v>5.296588392268355</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5100794034196091</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>85.94574066322517</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.726499784373657</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5484605727499139</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>86.62129846956216</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7.41428502834423</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.6627758201979281</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>89.59407488254959</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.81648314726251</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5942714993486129</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>90.33473012317607</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.854048703821606</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.49394819740918</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>93.62966852473589</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.512963396923727</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.2759462088400898</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>93.77685799872266</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.268835108535558</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4373066145648544</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>95.54013644036195</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.441713446587501</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.2041071254052397</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>96.11758507597696</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6.973519333310332</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5120498812572891</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>96.21921000179516</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.755202026145249</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.3138788584148355</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>97.88541994083515</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.758598910923244</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.4068133212478122</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>99.76870338671473</v>
-      </c>
-      <c r="C64" t="n">
-        <v>5.810181584250999</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.2720717022528825</v>
+        <v>0.2371498192838204</v>
       </c>
     </row>
   </sheetData>
